--- a/TorneoApertura2016/guesses.xlsx
+++ b/TorneoApertura2016/guesses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>León</t>
   </si>
@@ -497,7 +497,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -537,6 +537,9 @@
       <c r="E3" t="s">
         <v>24</v>
       </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
@@ -545,6 +548,9 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -553,6 +559,9 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -569,6 +578,9 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -577,6 +589,9 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -585,6 +600,9 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
@@ -641,8 +659,11 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -650,15 +671,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>

--- a/TorneoApertura2016/guesses.xlsx
+++ b/TorneoApertura2016/guesses.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
   <si>
     <t>León</t>
   </si>
@@ -97,13 +97,73 @@
   </si>
   <si>
     <t>W4-Actual</t>
+  </si>
+  <si>
+    <t>w5</t>
+  </si>
+  <si>
+    <t>w5-Actual</t>
+  </si>
+  <si>
+    <t>Veracruz 2 - 2 Toluca</t>
+  </si>
+  <si>
+    <t>Cruz Azul 3 - 1 Santos</t>
+  </si>
+  <si>
+    <t>Morelia 3 - 2 Chiapas</t>
+  </si>
+  <si>
+    <t>U.A.N.L 4 - 2 Pachuca</t>
+  </si>
+  <si>
+    <t>León 2 - 1 Querétaro</t>
+  </si>
+  <si>
+    <t>Necaxa 1 - 1 Tijuana</t>
+  </si>
+  <si>
+    <t>Guadalajara 2 - 2 Atlas</t>
+  </si>
+  <si>
+    <t>Pumas UNAM 5 - 3 Monterrey</t>
+  </si>
+  <si>
+    <t>Puebla 2 - 2 America</t>
+  </si>
+  <si>
+    <t>Veracruz,v,Toluca,E</t>
+  </si>
+  <si>
+    <t>Cruz Azul,v,Santos,G</t>
+  </si>
+  <si>
+    <t>Morelia,v,Chiapas,G</t>
+  </si>
+  <si>
+    <t>U.A.N.L,v,Pachuca,E</t>
+  </si>
+  <si>
+    <t>León,v,Querétaro,P</t>
+  </si>
+  <si>
+    <t>Guadalajara,v,Atlas,P</t>
+  </si>
+  <si>
+    <t>Necaxa,v,Tijuana,P</t>
+  </si>
+  <si>
+    <t>Pumas UNAM,v,Monterrey,E</t>
+  </si>
+  <si>
+    <t>Puebla,v,America,E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +192,13 @@
       <color rgb="FF0066CC"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,19 +217,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -505,7 +577,7 @@
     <col min="2" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -521,16 +593,37 @@
       <c r="F1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -540,8 +633,20 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-2.4</v>
+      </c>
+      <c r="J3">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -551,8 +656,20 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-3.8</v>
+      </c>
+      <c r="J4">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -562,16 +679,43 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="J5">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-6</v>
+      </c>
+      <c r="J6">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +725,20 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-5.4</v>
+      </c>
+      <c r="J7">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -592,8 +748,20 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-5.4</v>
+      </c>
+      <c r="J8">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -603,56 +771,158 @@
       <c r="F9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-1.6</v>
+      </c>
+      <c r="J9">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="J10">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="J11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="J12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="J13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="J14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="J15">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -662,16 +932,43 @@
       <c r="F16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="J16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-3.8</v>
+      </c>
+      <c r="J17">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -681,13 +978,139 @@
       <c r="F18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="J18">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3">
+        <v>-9</v>
+      </c>
+      <c r="J19">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
